--- a/06 02 2024 - Defect RT Status Report.xlsx
+++ b/06 02 2024 - Defect RT Status Report.xlsx
@@ -322,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,14 +334,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -435,6 +427,588 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" baseline="0"/>
+              <a:t>Defect Status
+Severity by Owner as of June 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Severity 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CAC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$35:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Severity 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED7D31"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CAC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$35:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Severity 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="A5A5A5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$35:$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CAC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$D$35:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+      </c:dTable>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>TICKETS BY OWNER: 13</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$50:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>FFX</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ministry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$50:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" baseline="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0"/>
+              <a:t>Total Number of sev 2 Tickets by owner : 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$A$57:$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>CAC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFX</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$B$57:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2265,7 +2839,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2281,7 +2855,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -2924,5 +3498,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>